--- a/data/testcase/suite.xlsx
+++ b/data/testcase/suite.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="9924" windowWidth="22368"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="testCase" r:id="rId1" sheetId="1"/>
+    <sheet name="testCase" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>用例编号</t>
   </si>
@@ -31,6 +31,9 @@
     <t>登录流程</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>homePage_01</t>
   </si>
   <si>
@@ -42,19 +45,16 @@
   <si>
     <t>发布评论流程</t>
   </si>
-  <si>
-    <t>PASS</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,22 +73,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,25 +104,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,28 +118,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -177,25 +155,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,49 +224,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,19 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,97 +374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,21 +423,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,17 +450,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,227 +501,221 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="9" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="23" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="18" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -729,10 +729,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -890,7 +890,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -899,13 +899,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -915,7 +915,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -924,7 +924,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -933,7 +933,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -943,12 +943,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -979,7 +979,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -998,7 +998,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1009,18 +1009,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="12.8796296296296" collapsed="false"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1034,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1042,28 +1043,34 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/testcase/suite.xlsx
+++ b/data/testcase/suite.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="22368" windowHeight="9924" tabRatio="652" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="1" r:id="rId1"/>
+    <sheet name="stepData" sheetId="2" r:id="rId2"/>
+    <sheet name="report" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>用例编号</t>
   </si>
@@ -22,7 +25,10 @@
     <t>用例描述</t>
   </si>
   <si>
-    <t>执行结果</t>
+    <t>后置处理</t>
+  </si>
+  <si>
+    <t>用例执行结果</t>
   </si>
   <si>
     <t>loginPage_01</t>
@@ -31,19 +37,112 @@
     <t>登录流程</t>
   </si>
   <si>
+    <t>resetApp</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>homePage_01</t>
-  </si>
-  <si>
-    <t>查看文章</t>
-  </si>
-  <si>
-    <t>articlePage_01</t>
-  </si>
-  <si>
-    <t>发布评论流程</t>
+    <t>loginPage_02</t>
+  </si>
+  <si>
+    <t>登录用户名为空</t>
+  </si>
+  <si>
+    <t>loginPage_03</t>
+  </si>
+  <si>
+    <t>登录密码错误</t>
+  </si>
+  <si>
+    <t>步骤编号</t>
+  </si>
+  <si>
+    <t>步骤描述</t>
+  </si>
+  <si>
+    <t>输入数据</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>步骤执行结果</t>
+  </si>
+  <si>
+    <t>失败截图</t>
+  </si>
+  <si>
+    <t>s_001</t>
+  </si>
+  <si>
+    <t>输入用户名</t>
+  </si>
+  <si>
+    <t>likg_java</t>
+  </si>
+  <si>
+    <t>s_002</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>meimima</t>
+  </si>
+  <si>
+    <t>s_003</t>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+  </si>
+  <si>
+    <t>s_004</t>
+  </si>
+  <si>
+    <t>验证是否跳转到主页面</t>
+  </si>
+  <si>
+    <t>头条</t>
+  </si>
+  <si>
+    <t>验证错误提示语</t>
+  </si>
+  <si>
+    <t>用户名密码不能为空</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>用户名或密码错误</t>
+  </si>
+  <si>
+    <t>概述</t>
+  </si>
+  <si>
+    <t>总用例数</t>
+  </si>
+  <si>
+    <t>总步骤数</t>
+  </si>
+  <si>
+    <t>执行总时间(秒)</t>
+  </si>
+  <si>
+    <t>用例统计</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>步骤统计</t>
   </si>
 </sst>
 </file>
@@ -51,12 +150,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +164,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -79,16 +200,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -96,7 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,7 +239,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,8 +253,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,9 +263,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,71 +322,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -218,6 +339,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -230,180 +519,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -413,75 +534,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,8 +566,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,140 +665,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1011,61 +1173,82 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="16.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="23.1111111111111" customWidth="1"/>
+    <col min="6" max="7" width="9.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1073,4 +1256,453 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="14.1111111111111" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.1111111111111" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.1111111111111" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.8888888888889" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.8888888888889" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.1111111111111" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="21.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="27.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="11.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/testcase/suite.xlsx
+++ b/data/testcase/suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="652" windowHeight="8370" windowWidth="20385"/>
+    <workbookView activeTab="2" windowHeight="9924" windowWidth="22368"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" r:id="rId1" sheetId="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="1">
   <si>
     <t>用例编号</t>
   </si>
@@ -36,19 +36,16 @@
     <t>登录流程</t>
   </si>
   <si>
-    <t>resetApp</t>
-  </si>
-  <si>
-    <t>loginPage_02</t>
-  </si>
-  <si>
-    <t>登录用户名为空</t>
-  </si>
-  <si>
-    <t>loginPage_03</t>
-  </si>
-  <si>
-    <t>登录密码错误</t>
+    <t>homePage_01</t>
+  </si>
+  <si>
+    <t>查看文章</t>
+  </si>
+  <si>
+    <t>articlePage_01</t>
+  </si>
+  <si>
+    <t>发布评论流程</t>
   </si>
   <si>
     <t>步骤编号</t>
@@ -102,16 +99,31 @@
     <t>头条</t>
   </si>
   <si>
-    <t>验证错误提示语</t>
-  </si>
-  <si>
-    <t>用户名密码不能为空</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>用户名或密码错误</t>
+    <t>关闭引导页</t>
+  </si>
+  <si>
+    <t>选择&lt;前端&gt;栏目</t>
+  </si>
+  <si>
+    <t>点击第一个文章</t>
+  </si>
+  <si>
+    <t>点击评论按钮</t>
+  </si>
+  <si>
+    <t>输入评论内容</t>
+  </si>
+  <si>
+    <t>文章写的真精彩！</t>
+  </si>
+  <si>
+    <t>发布评论</t>
+  </si>
+  <si>
+    <t>验证发布成功</t>
+  </si>
+  <si>
+    <t>评论成功</t>
   </si>
   <si>
     <t>概述</t>
@@ -200,74 +212,90 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,55 +309,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,187 +350,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,32 +550,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +576,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -590,27 +613,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,6 +632,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -640,7 +658,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="10" fontId="8" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="6" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -652,130 +670,130 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="7" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="14" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="30" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="30" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="33" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="25" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="25" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="5" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="9" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="4" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,7 +801,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -1145,25 +1163,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.1083333333333" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.4416666666667" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.1083333333333" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.4416666666667" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.1083333333333" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="9.66666666666667" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.1083333333333" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="9.66666666666667" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.6296296296296" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.8888888888889" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1176,51 +1190,38 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1235,19 +1236,19 @@
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.1083333333333" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.1083333333333" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.1083333333333" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.775" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.8916666666667" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.8916666666667" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.1083333333333" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.4444444444444" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.1111111111111" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.1111111111111" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.6666666666667" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.1111111111111" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.8888888888889" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.1111111111111" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1255,72 +1256,72 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row ht="15" r="3" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row ht="15" r="4" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -1329,132 +1330,124 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row ht="15" r="9" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1468,37 +1461,36 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.225" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.8916666666667" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.225" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.775" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.1296296296296" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="n">
         <v>3.0</v>
       </c>
@@ -1506,7 +1498,7 @@
         <v>11.0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1516,23 +1508,23 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="n">
         <v>3.0</v>
       </c>
@@ -1550,23 +1542,23 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="n">
         <v>11.0</v>
       </c>

--- a/data/testcase/suite.xlsx
+++ b/data/testcase/suite.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="9924" windowWidth="22368"/>
+    <workbookView windowWidth="9450" windowHeight="3810" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="testCase" r:id="rId1" sheetId="1"/>
-    <sheet name="stepData" r:id="rId2" sheetId="2"/>
-    <sheet name="report" r:id="rId3" sheetId="3"/>
+    <sheet name="testCase" sheetId="1" r:id="rId1"/>
+    <sheet name="stepData" sheetId="2" r:id="rId2"/>
+    <sheet name="report" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>用例编号</t>
   </si>
@@ -36,6 +36,9 @@
     <t>登录流程</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>homePage_01</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
     <t>发布评论流程</t>
   </si>
   <si>
+    <t>resetApp</t>
+  </si>
+  <si>
     <t>步骤编号</t>
   </si>
   <si>
@@ -72,7 +78,7 @@
     <t>输入用户名</t>
   </si>
   <si>
-    <t>likg_java</t>
+    <t>helloworld</t>
   </si>
   <si>
     <t>s_002</t>
@@ -81,7 +87,7 @@
     <t>输入密码</t>
   </si>
   <si>
-    <t>meimima</t>
+    <t>abc123</t>
   </si>
   <si>
     <t>s_003</t>
@@ -151,9 +157,6 @@
   </si>
   <si>
     <t>步骤统计</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -161,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -198,6 +201,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -205,7 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +229,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -227,29 +245,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,74 +336,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -356,187 +359,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,56 +550,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -613,7 +566,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,227 +600,277 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="6" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="14" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="30" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="30" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="33" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -881,10 +884,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1042,7 +1045,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1051,13 +1054,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1067,7 +1070,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1076,7 +1079,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1085,7 +1088,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1095,12 +1098,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1131,7 +1134,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1150,7 +1153,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1161,20 +1164,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.6296296296296" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.8888888888889" collapsed="true"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="13.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1191,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1199,56 +1202,59 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.4444444444444" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.1111111111111" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.1111111111111" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.6666666666667" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.1111111111111" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.8888888888889" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.1111111111111" collapsed="true"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1256,72 +1262,72 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="15" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" ht="15" spans="1:7">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -1330,175 +1336,175 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.1296296296296" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.75" collapsed="true"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>24.0</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1508,31 +1514,31 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1542,31 +1548,31 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1581,7 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A9:C9"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>